--- a/Shading Trees/Charts/Water Change by Activities.xlsx
+++ b/Shading Trees/Charts/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.036519750030607e-07</v>
+        <v>-0.0005547603745488239</v>
       </c>
       <c r="C2">
-        <v>-2.644159344811214e-06</v>
+        <v>-0.01415192358968653</v>
       </c>
       <c r="D2">
-        <v>-7.119073752726024e-08</v>
+        <v>-0.000381023133439129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.08937762997175e-07</v>
+        <v>0.004348273989535301</v>
       </c>
       <c r="C3">
-        <v>1.566846003697719e-05</v>
+        <v>0.08422249561067474</v>
       </c>
       <c r="D3">
-        <v>1.132512934987062e-06</v>
+        <v>0.00608758394905351</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.266978694822399e-07</v>
+        <v>0.002293105418340602</v>
       </c>
       <c r="C4">
-        <v>0.001538477050416986</v>
+        <v>8.26788768566712</v>
       </c>
       <c r="D4">
-        <v>3.787799267129799e-06</v>
+        <v>0.02035590906120355</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-3.447031537984202e-08</v>
+        <v>-0.0001845260572519436</v>
       </c>
       <c r="C5">
-        <v>-4.668970525756322e-07</v>
+        <v>-0.002499387409475418</v>
       </c>
       <c r="D5">
-        <v>-1.143391903379865e-08</v>
+        <v>-6.120791099673006e-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-1.005561108824438e-07</v>
+        <v>-0.0005381055849119631</v>
       </c>
       <c r="C6">
-        <v>-2.565183927494274e-06</v>
+        <v>-0.01372706031328885</v>
       </c>
       <c r="D6">
-        <v>-6.906442162613047e-08</v>
+        <v>-0.0003695842123744297</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.060748484960072e-05</v>
+        <v>-0.05678528333390886</v>
       </c>
       <c r="C7">
-        <v>-0.02668739343062043</v>
+        <v>-142.8662955041</v>
       </c>
       <c r="D7">
-        <v>-9.416269975304203e-05</v>
+        <v>-0.5040832638198083</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-2.986975732710562e-05</v>
+        <v>-0.1598975545786061</v>
       </c>
       <c r="C8">
-        <v>-0.001706177776213735</v>
+        <v>-9.133492215009028</v>
       </c>
       <c r="D8">
-        <v>-1.84978631807553e-05</v>
+        <v>-0.09902364618739057</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-5.266988933882999e-08</v>
+        <v>-0.0002819448126429869</v>
       </c>
       <c r="C9">
-        <v>-1.625438017072156e-06</v>
+        <v>-0.008701059050579829</v>
       </c>
       <c r="D9">
-        <v>-3.007284647082997e-06</v>
+        <v>-0.01609815991332653</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.458852682389988e-05</v>
+        <v>-0.0779959105711896</v>
       </c>
       <c r="C10">
-        <v>-0.0002388200955465436</v>
+        <v>-1.276521816942477</v>
       </c>
       <c r="D10">
-        <v>-1.655946209666581e-05</v>
+        <v>-0.08850654657362611</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-1.199675425667124e-08</v>
+        <v>-6.420625365866073e-05</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-2.098967541996899e-07</v>
+        <v>-0.001123360939317308</v>
       </c>
     </row>
   </sheetData>
